--- a/StructureDefinition-ext-R5-Claim.item.xlsx
+++ b/StructureDefinition-ext-R5-Claim.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10273" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10277" uniqueCount="668">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -608,15 +608,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the revenue or cost centers supplying the service and/or products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-revenue-center-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:category</t>
   </si>
   <si>
@@ -651,12 +642,6 @@
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
-    <t>Benefit categories such as: oral-basic, major, glasses.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:productOrService</t>
   </si>
   <si>
@@ -689,12 +674,6 @@
   </si>
   <si>
     <t>Extension.extension:productOrService.value[x]</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:productOrServiceEnd</t>
@@ -760,7 +739,7 @@
     <t>Extension.extension:request.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|0.0.1-snapshot-3|VisionPrescription|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|VisionPrescription)
 </t>
   </si>
   <si>
@@ -798,12 +777,6 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:programCode</t>
   </si>
   <si>
@@ -836,12 +809,6 @@
   </si>
   <si>
     <t>Extension.extension:programCode.value[x]</t>
-  </si>
-  <si>
-    <t>Program specific reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-program-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:serviced</t>
@@ -915,13 +882,7 @@
   </si>
   <si>
     <t>CodeableConcept
-AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)</t>
-  </si>
-  <si>
-    <t>Place of service: pharmacy, school, prison, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-place-for-R4</t>
+AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)</t>
   </si>
   <si>
     <t>Extension.extension:patientPaid</t>
@@ -990,7 +951,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1159,7 +1120,7 @@
     <t>Extension.extension:udi.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -1279,8 +1240,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:concept.id</t>
@@ -1298,7 +1258,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-tooth-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-tooth-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference</t>
@@ -1313,8 +1273,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference.id</t>
@@ -1329,7 +1288,7 @@
     <t>Extension.extension:bodySite.extension:site.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -1383,9 +1342,6 @@
     <t>Extension.extension:bodySite.extension:subSite.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-surface-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodySite.url</t>
   </si>
   <si>
@@ -1429,7 +1385,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -2505,8 +2461,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6560,13 +6516,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6604,13 +6560,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6635,16 +6591,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6713,7 +6669,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6816,7 +6772,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6921,7 +6877,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -6964,7 +6920,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -7026,7 +6982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -7055,13 +7011,13 @@
         <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7087,13 +7043,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7131,13 +7087,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7162,16 +7118,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7240,7 +7196,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -7343,7 +7299,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -7448,7 +7404,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -7491,7 +7447,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7553,7 +7509,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -7582,13 +7538,13 @@
         <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7614,13 +7570,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7658,13 +7614,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7689,14 +7645,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7765,7 +7721,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -7868,7 +7824,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -7973,7 +7929,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -8016,7 +7972,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -8078,7 +8034,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -8107,10 +8063,10 @@
         <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8137,11 +8093,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8179,13 +8137,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8210,14 +8168,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8286,7 +8244,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -8389,7 +8347,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -8494,7 +8452,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -8537,7 +8495,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8599,7 +8557,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -8625,13 +8583,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8702,13 +8660,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8733,16 +8691,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8811,7 +8769,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8914,7 +8872,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -9019,7 +8977,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -9062,7 +9020,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9124,7 +9082,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -9153,13 +9111,13 @@
         <v>187</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9185,13 +9143,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9229,13 +9187,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9260,16 +9218,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9338,7 +9296,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9441,7 +9399,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9546,7 +9504,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -9589,7 +9547,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9651,7 +9609,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -9680,13 +9638,13 @@
         <v>187</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9712,13 +9670,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9756,13 +9714,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9787,14 +9745,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9863,7 +9821,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9966,7 +9924,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -10071,7 +10029,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -10114,7 +10072,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -10176,7 +10134,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -10202,13 +10160,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10279,13 +10237,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10310,14 +10268,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10386,7 +10344,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -10489,7 +10447,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -10594,7 +10552,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -10637,7 +10595,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10699,7 +10657,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -10725,13 +10683,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10758,13 +10716,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10802,13 +10760,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10833,14 +10791,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10909,7 +10867,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -11012,7 +10970,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -11117,7 +11075,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -11160,7 +11118,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11222,7 +11180,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11248,13 +11206,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11325,13 +11283,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11356,14 +11314,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11432,7 +11390,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -11535,7 +11493,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -11640,7 +11598,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -11683,7 +11641,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11745,7 +11703,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -11771,13 +11729,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11848,13 +11806,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11879,14 +11837,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11955,7 +11913,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -12058,7 +12016,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -12163,7 +12121,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -12206,7 +12164,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12268,7 +12226,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
@@ -12294,13 +12252,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12371,13 +12329,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12402,16 +12360,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12480,7 +12438,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -12583,7 +12541,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -12688,7 +12646,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -12731,7 +12689,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12793,7 +12751,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>122</v>
@@ -12819,16 +12777,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12898,13 +12856,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12929,14 +12887,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13005,7 +12963,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -13108,7 +13066,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -13213,7 +13171,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -13256,7 +13214,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13318,7 +13276,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -13344,13 +13302,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13421,13 +13379,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13452,16 +13410,16 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13530,7 +13488,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -13633,7 +13591,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -13738,7 +13696,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -13781,7 +13739,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13843,7 +13801,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>122</v>
@@ -13869,16 +13827,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13948,13 +13906,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13979,14 +13937,14 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14055,7 +14013,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -14158,7 +14116,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -14263,7 +14221,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -14306,7 +14264,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -14368,7 +14326,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>122</v>
@@ -14394,13 +14352,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14471,13 +14429,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14502,14 +14460,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14578,7 +14536,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -14681,7 +14639,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -14784,13 +14742,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14815,16 +14773,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14893,10 +14851,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14996,10 +14954,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15099,13 +15057,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -15130,10 +15088,10 @@
         <v>93</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15204,10 +15162,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15307,10 +15265,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15412,10 +15370,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15455,7 +15413,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -15517,10 +15475,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15546,13 +15504,13 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -15560,7 +15518,7 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -15622,13 +15580,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15653,14 +15611,14 @@
         <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15729,10 +15687,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15832,10 +15790,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15937,10 +15895,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15980,7 +15938,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -16042,10 +16000,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16071,10 +16029,10 @@
         <v>187</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16101,11 +16059,11 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -16143,13 +16101,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -16174,14 +16132,14 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -16250,10 +16208,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16353,10 +16311,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16458,10 +16416,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16501,7 +16459,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16563,10 +16521,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16589,13 +16547,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16666,10 +16624,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16709,7 +16667,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16771,10 +16729,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16797,13 +16755,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16874,13 +16832,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16905,14 +16863,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16981,10 +16939,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17084,10 +17042,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17189,10 +17147,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17232,7 +17190,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17294,10 +17252,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17323,10 +17281,10 @@
         <v>187</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17353,11 +17311,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y142" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z142" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -17395,7 +17355,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>113</v>
@@ -17438,7 +17398,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17500,7 +17460,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>122</v>
@@ -17526,13 +17486,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17603,13 +17563,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17634,16 +17594,16 @@
         <v>93</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17712,7 +17672,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>105</v>
@@ -17815,7 +17775,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>107</v>
@@ -17920,7 +17880,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>113</v>
@@ -17963,7 +17923,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -18025,7 +17985,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>122</v>
@@ -18051,16 +18011,16 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -18130,13 +18090,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -18164,11 +18124,11 @@
         <v>81</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -18237,7 +18197,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>105</v>
@@ -18340,7 +18300,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>107</v>
@@ -18443,7 +18403,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
@@ -18481,7 +18441,7 @@
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18550,10 +18510,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18653,10 +18613,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18758,10 +18718,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18801,7 +18761,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18863,10 +18823,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18966,7 +18926,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
@@ -19004,7 +18964,7 @@
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -19073,10 +19033,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19176,10 +19136,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19281,10 +19241,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19324,7 +19284,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19386,10 +19346,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19489,7 +19449,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
@@ -19527,7 +19487,7 @@
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19596,10 +19556,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19699,10 +19659,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19804,10 +19764,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19847,7 +19807,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19909,10 +19869,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19968,13 +19928,13 @@
         <v>77</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>77</v>
@@ -20012,13 +19972,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -20043,16 +20003,16 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -20121,10 +20081,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20224,10 +20184,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20329,10 +20289,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20372,7 +20332,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20434,10 +20394,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20463,13 +20423,13 @@
         <v>187</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -20495,13 +20455,13 @@
         <v>77</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>77</v>
@@ -20539,13 +20499,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20570,16 +20530,16 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20648,10 +20608,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20751,10 +20711,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20856,10 +20816,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20899,7 +20859,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20961,10 +20921,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20990,13 +20950,13 @@
         <v>187</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -21022,13 +20982,13 @@
         <v>77</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>77</v>
@@ -21066,13 +21026,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -21097,14 +21057,14 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21173,10 +21133,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21276,10 +21236,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21381,10 +21341,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21424,7 +21384,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21486,10 +21446,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21515,10 +21475,10 @@
         <v>187</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21545,11 +21505,13 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y182" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z182" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -21587,13 +21549,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21618,16 +21580,16 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21696,10 +21658,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21799,10 +21761,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21904,10 +21866,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21947,7 +21909,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -22009,10 +21971,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22038,13 +22000,13 @@
         <v>187</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
@@ -22070,13 +22032,13 @@
         <v>77</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>77</v>
@@ -22114,13 +22076,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -22145,16 +22107,16 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22223,10 +22185,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22326,10 +22288,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22431,10 +22393,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22474,7 +22436,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22536,10 +22498,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22565,13 +22527,13 @@
         <v>187</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22597,13 +22559,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -22641,13 +22603,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22672,14 +22634,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22748,10 +22710,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22851,10 +22813,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22956,10 +22918,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22999,7 +22961,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -23061,10 +23023,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23087,13 +23049,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23164,13 +23126,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23195,14 +23157,14 @@
         <v>93</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23271,10 +23233,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23374,10 +23336,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23479,10 +23441,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23522,7 +23484,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23584,10 +23546,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23610,13 +23572,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23687,13 +23649,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23718,14 +23680,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23794,10 +23756,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23897,10 +23859,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24002,10 +23964,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -24045,7 +24007,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -24107,10 +24069,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24133,13 +24095,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -24210,13 +24172,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -24241,16 +24203,16 @@
         <v>93</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24319,10 +24281,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24422,10 +24384,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24527,10 +24489,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24570,7 +24532,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24632,10 +24594,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24658,16 +24620,16 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -24737,13 +24699,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24768,14 +24730,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24844,10 +24806,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24947,10 +24909,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25052,10 +25014,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25095,7 +25057,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -25157,10 +25119,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25183,13 +25145,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -25260,13 +25222,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25291,16 +25253,16 @@
         <v>93</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25369,10 +25331,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25472,10 +25434,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25577,10 +25539,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25620,7 +25582,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25682,10 +25644,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25708,16 +25670,16 @@
         <v>77</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -25787,13 +25749,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -25818,14 +25780,14 @@
         <v>93</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -25894,10 +25856,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25997,10 +25959,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26102,10 +26064,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26145,7 +26107,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -26207,10 +26169,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26233,13 +26195,13 @@
         <v>77</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -26310,13 +26272,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>77</v>
@@ -26344,11 +26306,11 @@
         <v>81</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>77</v>
@@ -26417,10 +26379,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26520,10 +26482,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26623,10 +26585,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C231" t="s" s="2">
         <v>100</v>
@@ -26661,7 +26623,7 @@
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -26730,10 +26692,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26833,10 +26795,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26938,10 +26900,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26981,7 +26943,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>77</v>
@@ -27043,10 +27005,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27146,10 +27108,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C236" t="s" s="2">
         <v>127</v>
@@ -27184,7 +27146,7 @@
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27253,10 +27215,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27356,10 +27318,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27461,10 +27423,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27504,7 +27466,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27566,10 +27528,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27669,10 +27631,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>178</v>
@@ -27707,7 +27669,7 @@
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -27776,10 +27738,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27879,10 +27841,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -27984,10 +27946,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28027,7 +27989,7 @@
       </c>
       <c r="Q244" s="2"/>
       <c r="R244" t="s" s="2">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>77</v>
@@ -28089,10 +28051,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28148,13 +28110,13 @@
         <v>77</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>77</v>
@@ -28192,13 +28154,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>77</v>
@@ -28223,16 +28185,16 @@
         <v>93</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>77</v>
@@ -28301,10 +28263,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28404,10 +28366,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28509,10 +28471,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28552,7 +28514,7 @@
       </c>
       <c r="Q249" s="2"/>
       <c r="R249" t="s" s="2">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="S249" t="s" s="2">
         <v>77</v>
@@ -28614,10 +28576,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28643,13 +28605,13 @@
         <v>187</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
@@ -28675,13 +28637,13 @@
         <v>77</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA250" t="s" s="2">
         <v>77</v>
@@ -28719,13 +28681,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -28750,16 +28712,16 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>77</v>
@@ -28828,10 +28790,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28931,10 +28893,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -29036,10 +28998,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -29079,7 +29041,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -29141,10 +29103,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29170,13 +29132,13 @@
         <v>187</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
@@ -29202,13 +29164,13 @@
         <v>77</v>
       </c>
       <c r="X255" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>77</v>
@@ -29246,13 +29208,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -29277,14 +29239,14 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -29353,10 +29315,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29456,10 +29418,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29561,10 +29523,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29604,7 +29566,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -29666,10 +29628,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29695,10 +29657,10 @@
         <v>187</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -29725,11 +29687,13 @@
         <v>77</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y260" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y260" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z260" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA260" t="s" s="2">
         <v>77</v>
@@ -29767,13 +29731,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -29798,16 +29762,16 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -29876,10 +29840,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29979,10 +29943,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -30084,10 +30048,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30127,7 +30091,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -30189,10 +30153,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30218,13 +30182,13 @@
         <v>187</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
@@ -30250,13 +30214,13 @@
         <v>77</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA265" t="s" s="2">
         <v>77</v>
@@ -30294,13 +30258,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>77</v>
@@ -30325,16 +30289,16 @@
         <v>93</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>77</v>
@@ -30403,10 +30367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30506,10 +30470,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30611,10 +30575,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30654,7 +30618,7 @@
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" t="s" s="2">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="S269" t="s" s="2">
         <v>77</v>
@@ -30716,10 +30680,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30745,13 +30709,13 @@
         <v>187</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
@@ -30777,13 +30741,13 @@
         <v>77</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z270" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>77</v>
@@ -30821,13 +30785,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -30852,14 +30816,14 @@
         <v>93</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>77</v>
@@ -30928,10 +30892,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31031,10 +30995,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -31136,10 +31100,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31179,7 +31143,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>77</v>
@@ -31241,10 +31205,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31267,13 +31231,13 @@
         <v>77</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -31344,13 +31308,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>77</v>
@@ -31375,14 +31339,14 @@
         <v>93</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>77</v>
@@ -31451,10 +31415,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31554,10 +31518,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -31659,10 +31623,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -31702,7 +31666,7 @@
       </c>
       <c r="Q279" s="2"/>
       <c r="R279" t="s" s="2">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="S279" t="s" s="2">
         <v>77</v>
@@ -31764,10 +31728,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -31790,13 +31754,13 @@
         <v>77</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -31867,13 +31831,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>77</v>
@@ -31898,14 +31862,14 @@
         <v>93</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>77</v>
@@ -31974,10 +31938,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -32077,10 +32041,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -32182,10 +32146,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -32225,7 +32189,7 @@
       </c>
       <c r="Q284" s="2"/>
       <c r="R284" t="s" s="2">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="S284" t="s" s="2">
         <v>77</v>
@@ -32287,10 +32251,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -32313,13 +32277,13 @@
         <v>77</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -32390,13 +32354,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D286" t="s" s="2">
         <v>77</v>
@@ -32421,16 +32385,16 @@
         <v>93</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>77</v>
@@ -32499,10 +32463,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -32602,10 +32566,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32707,10 +32671,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32750,7 +32714,7 @@
       </c>
       <c r="Q289" s="2"/>
       <c r="R289" t="s" s="2">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="S289" t="s" s="2">
         <v>77</v>
@@ -32812,10 +32776,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -32838,16 +32802,16 @@
         <v>77</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" t="s" s="2">
@@ -32917,13 +32881,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>77</v>
@@ -32948,14 +32912,14 @@
         <v>93</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" t="s" s="2">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="P291" t="s" s="2">
         <v>77</v>
@@ -33024,10 +32988,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -33127,10 +33091,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -33232,10 +33196,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33275,7 +33239,7 @@
       </c>
       <c r="Q294" s="2"/>
       <c r="R294" t="s" s="2">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="S294" t="s" s="2">
         <v>77</v>
@@ -33337,10 +33301,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33363,13 +33327,13 @@
         <v>77</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -33440,13 +33404,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D296" t="s" s="2">
         <v>77</v>
@@ -33471,16 +33435,16 @@
         <v>93</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="P296" t="s" s="2">
         <v>77</v>
@@ -33549,10 +33513,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33652,10 +33616,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33757,10 +33721,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -33800,7 +33764,7 @@
       </c>
       <c r="Q299" s="2"/>
       <c r="R299" t="s" s="2">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="S299" t="s" s="2">
         <v>77</v>
@@ -33862,10 +33826,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -33888,16 +33852,16 @@
         <v>77</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -33967,13 +33931,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -33998,14 +33962,14 @@
         <v>93</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>77</v>
@@ -34074,10 +34038,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -34177,10 +34141,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34282,10 +34246,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34325,7 +34289,7 @@
       </c>
       <c r="Q304" s="2"/>
       <c r="R304" t="s" s="2">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="S304" t="s" s="2">
         <v>77</v>
@@ -34387,10 +34351,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34413,13 +34377,13 @@
         <v>77</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34490,10 +34454,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34533,7 +34497,7 @@
       </c>
       <c r="Q306" s="2"/>
       <c r="R306" t="s" s="2">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="S306" t="s" s="2">
         <v>77</v>
@@ -34595,10 +34559,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34621,13 +34585,13 @@
         <v>77</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -34698,7 +34662,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>113</v>
@@ -34741,7 +34705,7 @@
       </c>
       <c r="Q308" s="2"/>
       <c r="R308" t="s" s="2">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="S308" t="s" s="2">
         <v>77</v>
@@ -34803,7 +34767,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>122</v>
@@ -34829,13 +34793,13 @@
         <v>77</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
@@ -35037,13 +35001,13 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
